--- a/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF62AEB9-B4F6-496D-A0B1-5DA0E443CA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D0BFF4-3647-4F21-B8E0-71B2D81D326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6ABE31A8-491D-49A1-AB1E-61DE4DB8C21C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0910AF36-B9AE-46C4-AC38-6822D4233CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="224">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>55,84%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>24,61%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,568 +134,559 @@
     <t>4,6%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,75%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -704,7 +695,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,74%</t>
   </si>
   <si>
     <t>2,94%</t>
@@ -713,7 +704,7 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>3,81%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE6AC84-D09E-4D96-876A-63A227472ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA2FEBE-C750-4BAD-AC7F-93CFCEA65D92}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1800,7 +1791,7 @@
         <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1806,13 @@
         <v>72257</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>86</v>
@@ -1830,13 +1821,13 @@
         <v>68049</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -1845,13 +1836,13 @@
         <v>140305</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1857,13 @@
         <v>40713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -1881,13 +1872,13 @@
         <v>21344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -1896,13 +1887,13 @@
         <v>62057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,7 +1949,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1970,13 +1961,13 @@
         <v>266052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>328</v>
@@ -1985,13 +1976,13 @@
         <v>248515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>575</v>
@@ -2000,13 +1991,13 @@
         <v>514567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2012,13 @@
         <v>110981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
@@ -2036,13 +2027,13 @@
         <v>110375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>286</v>
@@ -2051,13 +2042,13 @@
         <v>221356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2063,13 @@
         <v>28318</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2087,13 +2078,13 @@
         <v>33827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -2102,13 +2093,13 @@
         <v>62145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2114,13 @@
         <v>30673</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -2138,13 +2129,13 @@
         <v>37449</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -2153,13 +2144,13 @@
         <v>68122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2165,13 @@
         <v>20251</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -2189,13 +2180,13 @@
         <v>29599</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2204,13 +2195,13 @@
         <v>49849</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2216,13 @@
         <v>9861</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -2240,13 +2231,13 @@
         <v>13982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -2255,13 +2246,13 @@
         <v>23843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2320,13 @@
         <v>932941</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>971</v>
@@ -2344,13 +2335,13 @@
         <v>743553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>1793</v>
@@ -2359,13 +2350,13 @@
         <v>1676495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2371,13 @@
         <v>425537</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>523</v>
@@ -2395,13 +2386,13 @@
         <v>352091</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>943</v>
@@ -2410,13 +2401,13 @@
         <v>777628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2422,13 @@
         <v>152667</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>174</v>
@@ -2446,13 +2437,13 @@
         <v>125405</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>313</v>
@@ -2461,13 +2452,13 @@
         <v>278072</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2473,13 @@
         <v>171143</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>184</v>
@@ -2497,13 +2488,13 @@
         <v>135099</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>335</v>
@@ -2512,13 +2503,13 @@
         <v>306243</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2524,13 @@
         <v>96911</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>130</v>
@@ -2548,13 +2539,13 @@
         <v>102250</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>218</v>
@@ -2563,13 +2554,13 @@
         <v>199161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2575,13 @@
         <v>53049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>54</v>
@@ -2599,13 +2590,13 @@
         <v>44959</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -2614,13 +2605,13 @@
         <v>98008</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2667,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D0BFF4-3647-4F21-B8E0-71B2D81D326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E900A96-8D7D-40DB-91C4-B56FD4EB6D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0910AF36-B9AE-46C4-AC38-6822D4233CD7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13A1D635-E924-4C71-8D1E-5CFC9E6E1E2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA2FEBE-C750-4BAD-AC7F-93CFCEA65D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1C7C8-5E89-4EF9-B6E9-B025CF5A7B49}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E900A96-8D7D-40DB-91C4-B56FD4EB6D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D8F4E3-5FE9-43DE-A4DE-028D0D505ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13A1D635-E924-4C71-8D1E-5CFC9E6E1E2E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80F05EC5-C1CF-435E-A494-BB148C0A34A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>55,84%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>24,61%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,559 +134,568 @@
     <t>4,6%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -695,7 +704,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,94%</t>
@@ -704,7 +713,7 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1C7C8-5E89-4EF9-B6E9-B025CF5A7B49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB99D73-AD34-404D-8E24-7FA255B55A5A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1791,7 +1800,7 @@
         <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1815,13 @@
         <v>72257</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>86</v>
@@ -1821,13 +1830,13 @@
         <v>68049</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -1836,13 +1845,13 @@
         <v>140305</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1866,13 @@
         <v>40713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -1872,13 +1881,13 @@
         <v>21344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -1887,13 +1896,13 @@
         <v>62057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1958,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1961,13 +1970,13 @@
         <v>266052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>328</v>
@@ -1976,13 +1985,13 @@
         <v>248515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>575</v>
@@ -1991,13 +2000,13 @@
         <v>514567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2021,13 @@
         <v>110981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
@@ -2027,13 +2036,13 @@
         <v>110375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>286</v>
@@ -2042,13 +2051,13 @@
         <v>221356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2072,13 @@
         <v>28318</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2078,13 +2087,13 @@
         <v>33827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -2093,13 +2102,13 @@
         <v>62145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2123,13 @@
         <v>30673</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -2129,13 +2138,13 @@
         <v>37449</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -2144,13 +2153,13 @@
         <v>68122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2174,13 @@
         <v>20251</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -2180,13 +2189,13 @@
         <v>29599</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2195,13 +2204,13 @@
         <v>49849</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2225,13 @@
         <v>9861</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -2231,13 +2240,13 @@
         <v>13982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -2246,13 +2255,13 @@
         <v>23843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2329,13 @@
         <v>932941</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>971</v>
@@ -2335,13 +2344,13 @@
         <v>743553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>1793</v>
@@ -2350,13 +2359,13 @@
         <v>1676495</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2380,13 @@
         <v>425537</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>523</v>
@@ -2386,13 +2395,13 @@
         <v>352091</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>943</v>
@@ -2401,13 +2410,13 @@
         <v>777628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2431,13 @@
         <v>152667</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>174</v>
@@ -2437,13 +2446,13 @@
         <v>125405</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>313</v>
@@ -2452,13 +2461,13 @@
         <v>278072</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2482,13 @@
         <v>171143</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>184</v>
@@ -2488,13 +2497,13 @@
         <v>135099</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>335</v>
@@ -2503,13 +2512,13 @@
         <v>306243</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2533,13 @@
         <v>96911</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>130</v>
@@ -2539,13 +2548,13 @@
         <v>102250</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>218</v>
@@ -2554,13 +2563,13 @@
         <v>199161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2584,13 @@
         <v>53049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>54</v>
@@ -2590,13 +2599,13 @@
         <v>44959</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -2605,13 +2614,13 @@
         <v>98008</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,7 +2676,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D8F4E3-5FE9-43DE-A4DE-028D0D505ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E382E115-1CA2-4ABB-B605-69DC55950389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80F05EC5-C1CF-435E-A494-BB148C0A34A8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A5BF29D-975D-4E42-82C5-BCC90C3C83EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,649 +71,649 @@
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB99D73-AD34-404D-8E24-7FA255B55A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3025C64C-CE46-47CF-8FED-C627321DB5D7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1249,7 +1249,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>74941</v>
+        <v>75461</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>45766</v>
+        <v>42855</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>148</v>
       </c>
       <c r="N4" s="7">
-        <v>120707</v>
+        <v>118317</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1300,7 +1300,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>33027</v>
+        <v>32058</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1315,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>17624</v>
+        <v>15363</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1330,7 +1330,7 @@
         <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>50650</v>
+        <v>47421</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1351,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>6179</v>
+        <v>5636</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>4885</v>
+        <v>4426</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>11063</v>
+        <v>10062</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>13173</v>
+        <v>12366</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>6817</v>
+        <v>6241</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1432,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>19989</v>
+        <v>18607</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1453,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>4404</v>
+        <v>4084</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>4602</v>
+        <v>4284</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>9006</v>
+        <v>8368</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>2475</v>
+        <v>2497</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1519,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>9633</v>
+        <v>7440</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1534,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>12107</v>
+        <v>9936</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1555,7 +1555,7 @@
         <v>142</v>
       </c>
       <c r="D10" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -1570,7 +1570,7 @@
         <v>122</v>
       </c>
       <c r="I10" s="7">
-        <v>89326</v>
+        <v>80609</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -1585,7 +1585,7 @@
         <v>264</v>
       </c>
       <c r="N10" s="7">
-        <v>223523</v>
+        <v>212712</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -1608,7 +1608,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="7">
-        <v>591948</v>
+        <v>773832</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -1623,7 +1623,7 @@
         <v>577</v>
       </c>
       <c r="I11" s="7">
-        <v>449272</v>
+        <v>496858</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -1638,7 +1638,7 @@
         <v>1070</v>
       </c>
       <c r="N11" s="7">
-        <v>1041221</v>
+        <v>1270689</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>78</v>
@@ -1659,7 +1659,7 @@
         <v>273</v>
       </c>
       <c r="D12" s="7">
-        <v>281529</v>
+        <v>258841</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -1674,7 +1674,7 @@
         <v>326</v>
       </c>
       <c r="I12" s="7">
-        <v>224092</v>
+        <v>201683</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -1689,7 +1689,7 @@
         <v>599</v>
       </c>
       <c r="N12" s="7">
-        <v>505621</v>
+        <v>460525</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>87</v>
@@ -1710,7 +1710,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="7">
-        <v>118170</v>
+        <v>114648</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>90</v>
@@ -1725,7 +1725,7 @@
         <v>118</v>
       </c>
       <c r="I13" s="7">
-        <v>86693</v>
+        <v>77924</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>93</v>
@@ -1740,7 +1740,7 @@
         <v>224</v>
       </c>
       <c r="N13" s="7">
-        <v>204864</v>
+        <v>192571</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>96</v>
@@ -1761,7 +1761,7 @@
         <v>111</v>
       </c>
       <c r="D14" s="7">
-        <v>127298</v>
+        <v>124067</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>99</v>
@@ -1776,7 +1776,7 @@
         <v>123</v>
       </c>
       <c r="I14" s="7">
-        <v>90833</v>
+        <v>84058</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>102</v>
@@ -1791,7 +1791,7 @@
         <v>234</v>
       </c>
       <c r="N14" s="7">
-        <v>218132</v>
+        <v>208125</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>105</v>
@@ -1812,7 +1812,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="7">
-        <v>72257</v>
+        <v>68917</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>108</v>
@@ -1827,7 +1827,7 @@
         <v>86</v>
       </c>
       <c r="I15" s="7">
-        <v>68049</v>
+        <v>62272</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>111</v>
@@ -1836,22 +1836,22 @@
         <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
       </c>
       <c r="N15" s="7">
-        <v>140305</v>
+        <v>131189</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,25 +1863,25 @@
         <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>40713</v>
+        <v>38829</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>21344</v>
+        <v>19822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>120</v>
@@ -1893,7 +1893,7 @@
         <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>62057</v>
+        <v>58651</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>122</v>
@@ -1914,7 +1914,7 @@
         <v>1091</v>
       </c>
       <c r="D17" s="7">
-        <v>1231916</v>
+        <v>1379134</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -1929,7 +1929,7 @@
         <v>1262</v>
       </c>
       <c r="I17" s="7">
-        <v>940284</v>
+        <v>942616</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -1944,7 +1944,7 @@
         <v>2353</v>
       </c>
       <c r="N17" s="7">
-        <v>2172200</v>
+        <v>2321750</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1967,7 +1967,7 @@
         <v>247</v>
       </c>
       <c r="D18" s="7">
-        <v>266052</v>
+        <v>257653</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>126</v>
@@ -1982,7 +1982,7 @@
         <v>328</v>
       </c>
       <c r="I18" s="7">
-        <v>248515</v>
+        <v>234184</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>129</v>
@@ -1997,7 +1997,7 @@
         <v>575</v>
       </c>
       <c r="N18" s="7">
-        <v>514567</v>
+        <v>491838</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>132</v>
@@ -2018,7 +2018,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="7">
-        <v>110981</v>
+        <v>108538</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>135</v>
@@ -2033,7 +2033,7 @@
         <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>110375</v>
+        <v>101007</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>138</v>
@@ -2048,16 +2048,16 @@
         <v>286</v>
       </c>
       <c r="N19" s="7">
-        <v>221356</v>
+        <v>209545</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,22 +2069,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>28318</v>
+        <v>26789</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>33827</v>
+        <v>30797</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -2099,7 +2099,7 @@
         <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>62145</v>
+        <v>57586</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2108,7 +2108,7 @@
         <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,46 +2120,46 @@
         <v>28</v>
       </c>
       <c r="D21" s="7">
-        <v>30673</v>
+        <v>29290</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>37449</v>
+        <v>33974</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
       </c>
       <c r="N21" s="7">
-        <v>68122</v>
+        <v>63264</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,46 +2171,46 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>20251</v>
+        <v>19428</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>29599</v>
+        <v>26860</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
       </c>
       <c r="N22" s="7">
-        <v>49849</v>
+        <v>46288</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>9861</v>
+        <v>8897</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>168</v>
@@ -2237,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="7">
-        <v>13982</v>
+        <v>12720</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>171</v>
@@ -2252,7 +2252,7 @@
         <v>27</v>
       </c>
       <c r="N23" s="7">
-        <v>23843</v>
+        <v>21617</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>174</v>
@@ -2273,7 +2273,7 @@
         <v>437</v>
       </c>
       <c r="D24" s="7">
-        <v>466135</v>
+        <v>450594</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -2288,7 +2288,7 @@
         <v>652</v>
       </c>
       <c r="I24" s="7">
-        <v>473747</v>
+        <v>439543</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2303,7 +2303,7 @@
         <v>1089</v>
       </c>
       <c r="N24" s="7">
-        <v>939882</v>
+        <v>890138</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2326,7 +2326,7 @@
         <v>822</v>
       </c>
       <c r="D25" s="7">
-        <v>932941</v>
+        <v>1106946</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>177</v>
@@ -2341,7 +2341,7 @@
         <v>971</v>
       </c>
       <c r="I25" s="7">
-        <v>743553</v>
+        <v>773898</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>180</v>
@@ -2356,16 +2356,16 @@
         <v>1793</v>
       </c>
       <c r="N25" s="7">
-        <v>1676495</v>
+        <v>1880844</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,46 +2377,46 @@
         <v>420</v>
       </c>
       <c r="D26" s="7">
-        <v>425537</v>
+        <v>399438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>523</v>
       </c>
       <c r="I26" s="7">
-        <v>352091</v>
+        <v>318053</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>943</v>
       </c>
       <c r="N26" s="7">
-        <v>777628</v>
+        <v>717491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,46 +2428,46 @@
         <v>139</v>
       </c>
       <c r="D27" s="7">
-        <v>152667</v>
+        <v>147073</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H27" s="7">
         <v>174</v>
       </c>
       <c r="I27" s="7">
-        <v>125405</v>
+        <v>113146</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>313</v>
       </c>
       <c r="N27" s="7">
-        <v>278072</v>
+        <v>260219</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,43 +2479,43 @@
         <v>151</v>
       </c>
       <c r="D28" s="7">
-        <v>171143</v>
+        <v>165723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>184</v>
       </c>
       <c r="I28" s="7">
-        <v>135099</v>
+        <v>124273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>335</v>
       </c>
       <c r="N28" s="7">
-        <v>306243</v>
+        <v>289996</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>208</v>
@@ -2530,7 +2530,7 @@
         <v>88</v>
       </c>
       <c r="D29" s="7">
-        <v>96911</v>
+        <v>92429</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>209</v>
@@ -2545,7 +2545,7 @@
         <v>130</v>
       </c>
       <c r="I29" s="7">
-        <v>102250</v>
+        <v>93416</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>212</v>
@@ -2560,16 +2560,16 @@
         <v>218</v>
       </c>
       <c r="N29" s="7">
-        <v>199161</v>
+        <v>185845</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="D30" s="7">
-        <v>53049</v>
+        <v>50223</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>219</v>
@@ -2596,7 +2596,7 @@
         <v>54</v>
       </c>
       <c r="I30" s="7">
-        <v>44959</v>
+        <v>39982</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>220</v>
@@ -2611,7 +2611,7 @@
         <v>104</v>
       </c>
       <c r="N30" s="7">
-        <v>98008</v>
+        <v>90205</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>223</v>
@@ -2632,7 +2632,7 @@
         <v>1670</v>
       </c>
       <c r="D31" s="7">
-        <v>1832248</v>
+        <v>1961831</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -2647,7 +2647,7 @@
         <v>2036</v>
       </c>
       <c r="I31" s="7">
-        <v>1503357</v>
+        <v>1462769</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -2662,7 +2662,7 @@
         <v>3706</v>
       </c>
       <c r="N31" s="7">
-        <v>3335606</v>
+        <v>3424600</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
